--- a/ResultadoEleicoesDistritos/SETÚBAL_ALCÁCER DO SAL.xlsx
+++ b/ResultadoEleicoesDistritos/SETÚBAL_ALCÁCER DO SAL.xlsx
@@ -597,64 +597,64 @@
         <v>2964</v>
       </c>
       <c r="H2" t="n">
-        <v>122</v>
+        <v>91</v>
       </c>
       <c r="I2" t="n">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="J2" t="n">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="K2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L2" t="n">
-        <v>314</v>
+        <v>330</v>
       </c>
       <c r="M2" t="n">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="N2" t="n">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="O2" t="n">
         <v>1</v>
       </c>
       <c r="P2" t="n">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="n">
         <v>1</v>
       </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
       <c r="R2" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="S2" t="n">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="T2" t="n">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="U2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="V2" t="n">
-        <v>1892</v>
+        <v>1907</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X2" t="n">
-        <v>1941</v>
+        <v>1939</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z2" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AA2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
